--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ну как?[K] Неплохо, правда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gummi? [CS:I]Apple[CR]?\nOh, I can\'t decide…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Желе? [CS:I]Яблоко[CR]? Ох, не могу\nрешить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çåìå? [CS:I]Ÿáìïëï[CR]? Ïö, îå íïãô\nñåšéóû…</t>
   </si>
 </sst>
 </file>
@@ -109,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +162,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -175,6 +198,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -457,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,17 +577,35 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>294</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <v>269</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -91,6 +91,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Çåìå? [CS:I]Ÿáìïëï[CR]? Ïö, îå íïãô\nñåšéóû…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1310.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m interested in a treasure\ncalled [CS:I]Mystery Part[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a legendary item that\'s\nveiled in mystery.[K] Well? Don\'t you find it\nintriguing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But my partner [CS:N]Murkrow[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She\'s like, \"I have no interest in\na drab and dingy thing like that!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, what am I to do with her...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я интересуюсь сокровищем,\nназываемом [CS:I]Загадочной Частью[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но вот моя спутница [CS:N]Маркроу[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, ну что мне с ней делать?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ éîóåñåòôýòû òïëñïâéþåí,\nîàèúâàåíïí [CS:I]Èàãàäïœîïê Œàòóûý[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âïó íïÿ òðôóîéøà [CS:N]Íàñëñïô[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, îô œóï íîå ò îåê äåìàóû?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîà óàëàÿ: \"Íåîÿ îå éîóåñåòôåó\nóàëàÿ òåñàÿ é óôòëìàÿ âåþû!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Она такая: \"Меня не интересует\nтакая серая и тусклая вещь!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это окутанный тайной легендарный\nпредмет.[K] Ну как? Разве тебе не интересно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ïëôóàîîúê óàêîïê ìåãåîäàñîúê\nðñåäíåó.[K] Îô ëàë? Ñàèâå óåáå îå éîóåñåòîï?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1410.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We found a mysterious\ntreasure box in a dungeon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We visited Treasure Town so\nwe could have the box appraised at\n[CS:K]Xatu[CR]\'s shop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В подземелье нам попалась\nзагадочная шкатулка.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы посетили Город Сокровищ,\nчтобы Оценщик [CS:K]Ксату[CR] открыл её нам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðïäèåíåìûå îàí ðïðàìàòû\nèàãàäïœîàÿ šëàóôìëà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïòåóéìé Ãïñïä Òïëñïâéþ,\nœóïáú Ïøåîþéë [CS:K]Ëòàóô[CR] ïóëñúì åæ îàí.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1505.ssb</t>
   </si>
 </sst>
 </file>
@@ -486,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +683,117 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>238</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>241</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>244</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>247</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>250</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>216</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>219</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/um1505.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild seems to be buzzing\nwith activity…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Члены гильдии сегодня очень\nактивны...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œìåîú ãéìûäéé òåãïäîÿ ïœåîû\nàëóéâîú...</t>
   </si>
 </sst>
 </file>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,20 +790,37 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>219</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>197</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -111,18 +111,12 @@
     <t xml:space="preserve"> Oh, what am I to do with her...?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Я интересуюсь сокровищем,\nназываемом [CS:I]Загадочной Частью[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Но вот моя спутница [CS:N]Маркроу[CR]...</t>
   </si>
   <si>
     <t xml:space="preserve"> О, ну что мне с ней делать?..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ÿ éîóåñåòôýòû òïëñïâéþåí,\nîàèúâàåíïí [CS:I]Èàãàäïœîïê Œàòóûý[CR].</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Îï âïó íïÿ òðôóîéøà [CS:N]Íàñëñïô[CR]...</t>
   </si>
   <si>
@@ -178,6 +172,90 @@
   </si>
   <si>
     <t xml:space="preserve"> Œìåîú ãéìûäéé òåãïäîÿ ïœåîû\nàëóéâîú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я интересуюсь сокровищем,\nназываемым [CS:I]Загадочной Частью[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ éîóåñåòôýòû òïëñïâéþåí,\nîàèúâàåíúí [CS:I]Èàãàäïœîïê Œàòóûý[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"Mysterious Mountain\" just\nsounds cool.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3110.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"Таинственная Гора\". Звучит\nздорово.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"Óàéîòóâåîîàÿ Ãïñà\". Èâôœéó\nèäïñïâï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Murkrow[CR] keeps saying,\n\"Gold! Gold!\" and I\'m getting sick of it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/D73P21A/us3101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would rather find some stylish\nand elegant treasure…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Маркроу[CR] без конца твердит:\n\"Золото! Золото!\" и меня уже от этого\nтошнит...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я бы лучше поискала что-нибудь\nизящное и элегантное...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñëñïô[CR] áåè ëïîøà óâåñäéó:\n\"Èïìïóï! Èïìïóï!\" é íåîÿ ôçå ïó üóïãï\nóïšîéó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áú ìôœšå ðïéòëàìà œóï-îéáôäû\néèÿþîïå é üìåãàîóîïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How time flies when looking\nfor treasure, but the wind will blow you away\nif you stay on the same floor too long.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3123.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В время поисков сокровищ время\nпролетает незаметно, но если долго\nоставаться на этаже, тебя сдует ветер.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â âñåíÿ ðïéòëïâ òïëñïâéþ âñåíÿ\nðñïìåóàåó îåèàíåóîï, îï åòìé äïìãï\nïòóàâàóûòÿ îà üóàçå, óåáÿ òäôåó âåóåñ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When I\'m searching for\ntreasure, it makes it hard to move forward.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если я ищу сокровища, мне трудно\nпродвигаться вперёд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ÿ éþô òïëñïâéþà, íîå óñôäîï\nðñïäâéãàóûòÿ âðåñæä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gondolas are so convenient…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I love it when it\'s easy to find\nlots of treasure!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гондолы очень удобны...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Обожаю комфортный поиск сокровищ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïîäïìú ïœåîû ôäïáîú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïáïçàý ëïíõïñóîúê ðïéòë òïëñïâéþ!</t>
   </si>
 </sst>
 </file>
@@ -573,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,15 +784,15 @@
         <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4">
         <v>241</v>
@@ -723,10 +801,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,10 +815,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -751,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -766,61 +844,175 @@
         <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4">
         <v>216</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
         <v>219</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8">
+        <v>197</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4">
-        <v>197</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>52</v>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8">
+        <v>178</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4">
+        <v>156</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
+        <v>159</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="8">
+        <v>143</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8">
+        <v>124</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>111</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -256,6 +256,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïáïçàý ëïíõïñóîúê ðïéòë òïëñïâéþ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I rode the Gondola, but it only\ngoes as far as the 6th Station Clearing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wanted to climb all the way\nto the top, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Murkrow[CR] insisted she\'s weary\nof climbing, so we just left…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3117.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я ездила на Гондоле, но она\nидёт только до Поляны 6-го Перехода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хотела дойти до самой вершины,\nно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Маркроу[CR] сказала, что она устала\nидти и мы просто ушли...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ åèäéìà îà Ãïîäïìå, îï ïîà\néäæó óïìûëï äï Ðïìÿîú 6-ãï Ðåñåöïäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïóåìà äïêóé äï òàíïê âåñšéîú,\nîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàñëñïô[CR] òëàèàìà, œóï ïîà ôòóàìà\néäóé é íú ðñïòóï ôšìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We finally agreed on something\nthat we both prized!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That treasure is none other\nthan...[K]the [CS:I]Golden Apple[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So?[K] Know anything about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы наконец-то поняли, что нам\nобеим действительно нравится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это сокровище ничто иное как...[K]\n[CS:I]Золотое Яблоко[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну как?[K] Знаете о нём что-нибудь?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îàëïîåø-óï ðïîÿìé, œóï îàí\nïáåéí äåêòóâéóåìûîï îñàâéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï òïëñïâéþå îéœóï éîïå ëàë...[K]\n[CS:I]Èïìïóïå Ÿáìïëï[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô ëàë?[K] Èîàåóå ï îæí œóï-îéáôäû?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been on the hunt for the\n[CS:I]Golden Apple[CR], but...[K]we\'ve given up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My partner [CS:N]Murkrow[CR] has no\npatience or endurance for searches…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2009.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы охотились за [CS:I]Золотым Яблоком[CR],\nно...[K] Мы бросили это дело.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Моей спутнице [CS:N]Маркроу[CR] недостаёт\nтерпения и запаса сил на поиски...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïöïóéìéòû èà [CS:I]Èïìïóúí Ÿáìïëïí[CR],\nîï...[K] Íú áñïòéìé üóï äåìï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïåê òðôóîéøå [CS:N]Íàñëñïô[CR] îåäïòóàæó\nóåñðåîéÿ é èàðàòà òéì îà ðïéòëé...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2012.ssb</t>
   </si>
 </sst>
 </file>
@@ -286,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -338,11 +425,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -369,6 +465,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,17 +1104,147 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
         <v>111</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10">
+        <v>95</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="4">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>70</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="4">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шаппет.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -343,6 +343,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us2012.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My partner [CS:N]Murkrow[CR] won\'t do\nanything I say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I really want to go look for the\n[CS:I]Secret Slab[CR], but…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень хочу отправиться на\nпоиски [CS:I]Таблички-Секрета[CR], но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Моя спутница [CS:N]Маркроу[CR] меня\nсовсем не слушает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïÿ òðôóîéøà [CS:N]Íàñëñïô[CR] íåîÿ\nòïâòåí îå òìôšàåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû öïœô ïóðñàâéóûòÿ îà\nðïéòëé [CS:I]Óàáìéœëé-Òåëñåóà[CR], îï...</t>
   </si>
 </sst>
 </file>
@@ -753,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,20 +1252,51 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="4">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
